--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mca0628/Documents/mactimer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B37D694-17FD-8A44-90B2-16DCA439242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DBA9ED-AE8B-4142-BE0B-CFF6683525FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10020" yWindow="3440" windowWidth="18400" windowHeight="14000" xr2:uid="{41EA2BC7-86E1-774C-8377-715DCC8A16C1}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>111 W Jackson</t>
   </si>
   <si>
-    <t>Items Recycled</t>
-  </si>
-  <si>
     <t>1380 W Lake Street</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>144 S Wabash</t>
+  </si>
+  <si>
+    <t>Sustainable Items Purchased</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>23525</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>9032</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>50305</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9280</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2490</v>
